--- a/Teams/Southampton_stats.xlsx
+++ b/Teams/Southampton_stats.xlsx
@@ -8,15 +8,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Matches" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StandardStats" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ShootingStats" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PassingStats" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PassTypes" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GoalShotCreation" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DefensiveActions" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standard Stats" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shooting Stats" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Passing Stats" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pass Types" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Goal &amp; Shot Creation" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defensive Actions" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Possession" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PlayingTime" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MiscStats" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Playing Time" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Miscellaneous Stats" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4526,7 +4526,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27-341</t>
+          <t>27-342</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -4607,7 +4607,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>20-253</t>
+          <t>20-254</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -4688,7 +4688,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>23-049</t>
+          <t>23-050</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -4769,7 +4769,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>28-342</t>
+          <t>28-343</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -4850,7 +4850,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>26-310</t>
+          <t>26-311</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -4931,7 +4931,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>28-242</t>
+          <t>28-243</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -5012,7 +5012,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>26-059</t>
+          <t>26-060</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -5093,7 +5093,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>19-008</t>
+          <t>19-009</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -5174,7 +5174,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>24-265</t>
+          <t>24-266</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -5255,7 +5255,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>28-038</t>
+          <t>28-039</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -5336,7 +5336,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>28-279</t>
+          <t>28-280</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -5417,7 +5417,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>23-242</t>
+          <t>23-243</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -5498,7 +5498,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>27-160</t>
+          <t>27-161</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -5579,7 +5579,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>20-359</t>
+          <t>20-360</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -5660,7 +5660,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>31-052</t>
+          <t>31-053</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -5741,7 +5741,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>30-296</t>
+          <t>30-297</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -5822,7 +5822,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>23-033</t>
+          <t>23-034</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -5903,7 +5903,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>22-293</t>
+          <t>22-294</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -5984,7 +5984,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>25-027</t>
+          <t>25-028</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -6065,7 +6065,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>35-107</t>
+          <t>35-108</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -6146,7 +6146,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>36-314</t>
+          <t>36-315</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -6227,7 +6227,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>25-336</t>
+          <t>25-337</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -6308,7 +6308,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>31-024</t>
+          <t>31-025</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -6389,7 +6389,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>30-033</t>
+          <t>30-034</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -6470,7 +6470,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>24-029</t>
+          <t>24-030</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -6551,7 +6551,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>23-099</t>
+          <t>23-100</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -6632,7 +6632,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>31-183</t>
+          <t>31-184</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -6713,7 +6713,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>23-301</t>
+          <t>23-302</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -6794,7 +6794,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>28-252</t>
+          <t>28-253</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -6875,7 +6875,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>28-174</t>
+          <t>28-175</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -6956,7 +6956,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>22-051</t>
+          <t>22-052</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -7035,7 +7035,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>18-245</t>
+          <t>18-246</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -7116,7 +7116,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>21-357</t>
+          <t>21-358</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -7195,7 +7195,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>22-110</t>
+          <t>22-111</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -7440,14 +7440,10 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 4_level_0</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>Playing Time</t>
         </is>
       </c>
+      <c r="G1" s="1" t="n"/>
       <c r="H1" s="1" t="n"/>
       <c r="I1" s="1" t="n"/>
       <c r="J1" s="1" t="inlineStr">
@@ -7691,7 +7687,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27-341</t>
+          <t>27-342</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -7808,7 +7804,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>20-253</t>
+          <t>20-254</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -7925,7 +7921,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>23-049</t>
+          <t>23-050</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -8042,7 +8038,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>28-342</t>
+          <t>28-343</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -8159,7 +8155,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>26-310</t>
+          <t>26-311</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -8276,7 +8272,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>28-242</t>
+          <t>28-243</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -8393,7 +8389,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>26-059</t>
+          <t>26-060</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -8510,7 +8506,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>19-008</t>
+          <t>19-009</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -8627,7 +8623,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>24-265</t>
+          <t>24-266</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -8744,7 +8740,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>28-038</t>
+          <t>28-039</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -8861,7 +8857,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>28-279</t>
+          <t>28-280</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -8978,7 +8974,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>23-242</t>
+          <t>23-243</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -9095,7 +9091,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>27-160</t>
+          <t>27-161</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -9212,7 +9208,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>20-359</t>
+          <t>20-360</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -9329,7 +9325,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>31-052</t>
+          <t>31-053</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -9446,7 +9442,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>30-296</t>
+          <t>30-297</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -9563,7 +9559,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>23-033</t>
+          <t>23-034</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -9680,7 +9676,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>22-293</t>
+          <t>22-294</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -9797,7 +9793,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>25-027</t>
+          <t>25-028</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -9914,7 +9910,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>35-107</t>
+          <t>35-108</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -10031,7 +10027,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>36-314</t>
+          <t>36-315</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -10148,7 +10144,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>25-336</t>
+          <t>25-337</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -10265,7 +10261,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>31-024</t>
+          <t>31-025</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -10382,7 +10378,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>30-033</t>
+          <t>30-034</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -10499,7 +10495,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>24-029</t>
+          <t>24-030</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -10616,7 +10612,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>23-099</t>
+          <t>23-100</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -10733,7 +10729,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>31-183</t>
+          <t>31-184</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -10850,7 +10846,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>23-301</t>
+          <t>23-302</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -10967,7 +10963,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>28-252</t>
+          <t>28-253</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -11084,7 +11080,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>28-174</t>
+          <t>28-175</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -11201,7 +11197,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>22-051</t>
+          <t>22-052</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -11318,7 +11314,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>18-245</t>
+          <t>18-246</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -11435,7 +11431,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>21-357</t>
+          <t>21-358</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -11552,7 +11548,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>22-110</t>
+          <t>22-111</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -11920,9 +11916,9 @@
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="Y1:AH1"/>
+    <mergeCell ref="F1:I1"/>
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="G1:I1"/>
     <mergeCell ref="V1:X1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12140,7 +12136,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27-341</t>
+          <t>27-342</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -12224,7 +12220,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>20-253</t>
+          <t>20-254</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -12308,7 +12304,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>23-049</t>
+          <t>23-050</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -12392,7 +12388,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>28-342</t>
+          <t>28-343</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -12476,7 +12472,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>26-310</t>
+          <t>26-311</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -12550,7 +12546,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>28-242</t>
+          <t>28-243</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -12634,7 +12630,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>26-059</t>
+          <t>26-060</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -12718,7 +12714,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>19-008</t>
+          <t>19-009</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -12802,7 +12798,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>24-265</t>
+          <t>24-266</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -12886,7 +12882,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>28-038</t>
+          <t>28-039</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -12970,7 +12966,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>28-279</t>
+          <t>28-280</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -13052,7 +13048,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>23-242</t>
+          <t>23-243</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -13136,7 +13132,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>27-160</t>
+          <t>27-161</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -13220,7 +13216,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>20-359</t>
+          <t>20-360</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -13302,7 +13298,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>31-052</t>
+          <t>31-053</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -13384,7 +13380,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>30-296</t>
+          <t>30-297</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -13468,7 +13464,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>23-033</t>
+          <t>23-034</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -13552,7 +13548,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>22-293</t>
+          <t>22-294</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -13634,7 +13630,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>25-027</t>
+          <t>25-028</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -13718,7 +13714,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>35-107</t>
+          <t>35-108</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -13792,7 +13788,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>36-314</t>
+          <t>36-315</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -13874,7 +13870,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>25-336</t>
+          <t>25-337</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -13958,7 +13954,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>31-024</t>
+          <t>31-025</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -14042,7 +14038,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>30-033</t>
+          <t>30-034</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -14116,7 +14112,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>24-029</t>
+          <t>24-030</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -14198,7 +14194,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>23-099</t>
+          <t>23-100</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -14280,7 +14276,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>31-183</t>
+          <t>31-184</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -14354,7 +14350,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>23-301</t>
+          <t>23-302</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -14436,7 +14432,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>28-252</t>
+          <t>28-253</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -14518,7 +14514,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>28-174</t>
+          <t>28-175</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -14600,7 +14596,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>22-051</t>
+          <t>22-052</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -14674,7 +14670,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>18-245</t>
+          <t>18-246</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -14756,7 +14752,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>21-357</t>
+          <t>21-358</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -14830,7 +14826,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>22-110</t>
+          <t>22-111</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -15333,7 +15329,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27-341</t>
+          <t>27-342</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -15435,7 +15431,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>20-253</t>
+          <t>20-254</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -15537,7 +15533,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>23-049</t>
+          <t>23-050</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -15639,7 +15635,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>28-342</t>
+          <t>28-343</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -15741,7 +15737,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>26-310</t>
+          <t>26-311</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -15843,7 +15839,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>28-242</t>
+          <t>28-243</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -15945,7 +15941,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>26-059</t>
+          <t>26-060</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -16047,7 +16043,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>19-008</t>
+          <t>19-009</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -16149,7 +16145,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>24-265</t>
+          <t>24-266</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -16251,7 +16247,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>28-038</t>
+          <t>28-039</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -16353,7 +16349,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>28-279</t>
+          <t>28-280</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -16455,7 +16451,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>23-242</t>
+          <t>23-243</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -16557,7 +16553,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>27-160</t>
+          <t>27-161</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -16659,7 +16655,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>20-359</t>
+          <t>20-360</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -16761,7 +16757,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>31-052</t>
+          <t>31-053</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -16863,7 +16859,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>30-296</t>
+          <t>30-297</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -16965,7 +16961,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>23-033</t>
+          <t>23-034</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -17067,7 +17063,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>22-293</t>
+          <t>22-294</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -17169,7 +17165,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>25-027</t>
+          <t>25-028</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -17271,7 +17267,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>35-107</t>
+          <t>35-108</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -17373,7 +17369,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>36-314</t>
+          <t>36-315</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -17475,7 +17471,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>25-336</t>
+          <t>25-337</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -17577,7 +17573,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>31-024</t>
+          <t>31-025</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -17679,7 +17675,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>30-033</t>
+          <t>30-034</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -17781,7 +17777,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>24-029</t>
+          <t>24-030</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -17883,7 +17879,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>23-099</t>
+          <t>23-100</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -17985,7 +17981,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>31-183</t>
+          <t>31-184</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -18087,7 +18083,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>23-301</t>
+          <t>23-302</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -18187,7 +18183,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>28-252</t>
+          <t>28-253</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -18289,7 +18285,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>28-174</t>
+          <t>28-175</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -18391,7 +18387,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>22-051</t>
+          <t>22-052</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -18493,7 +18489,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>18-245</t>
+          <t>18-246</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -18593,7 +18589,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>21-357</t>
+          <t>21-358</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -18691,7 +18687,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>22-110</t>
+          <t>22-111</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -19171,7 +19167,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27-341</t>
+          <t>27-342</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -19249,7 +19245,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>20-253</t>
+          <t>20-254</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -19327,7 +19323,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>23-049</t>
+          <t>23-050</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -19405,7 +19401,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>28-342</t>
+          <t>28-343</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -19483,7 +19479,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>26-310</t>
+          <t>26-311</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -19561,7 +19557,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>28-242</t>
+          <t>28-243</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -19639,7 +19635,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>26-059</t>
+          <t>26-060</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -19717,7 +19713,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>19-008</t>
+          <t>19-009</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -19795,7 +19791,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>24-265</t>
+          <t>24-266</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -19873,7 +19869,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>28-038</t>
+          <t>28-039</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -19951,7 +19947,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>28-279</t>
+          <t>28-280</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -20029,7 +20025,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>23-242</t>
+          <t>23-243</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -20107,7 +20103,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>27-160</t>
+          <t>27-161</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -20185,7 +20181,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>20-359</t>
+          <t>20-360</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -20263,7 +20259,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>31-052</t>
+          <t>31-053</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -20341,7 +20337,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>30-296</t>
+          <t>30-297</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -20419,7 +20415,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>23-033</t>
+          <t>23-034</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -20497,7 +20493,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>22-293</t>
+          <t>22-294</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -20575,7 +20571,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>25-027</t>
+          <t>25-028</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -20653,7 +20649,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>35-107</t>
+          <t>35-108</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -20731,7 +20727,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>36-314</t>
+          <t>36-315</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -20809,7 +20805,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>25-336</t>
+          <t>25-337</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -20887,7 +20883,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>31-024</t>
+          <t>31-025</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -20965,7 +20961,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>30-033</t>
+          <t>30-034</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -21043,7 +21039,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>24-029</t>
+          <t>24-030</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -21121,7 +21117,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>23-099</t>
+          <t>23-100</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -21199,7 +21195,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>31-183</t>
+          <t>31-184</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -21277,7 +21273,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>23-301</t>
+          <t>23-302</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -21355,7 +21351,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>28-252</t>
+          <t>28-253</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -21433,7 +21429,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>28-174</t>
+          <t>28-175</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -21511,7 +21507,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>22-051</t>
+          <t>22-052</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -21589,7 +21585,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>18-245</t>
+          <t>18-246</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -21667,7 +21663,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>21-357</t>
+          <t>21-358</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -21745,7 +21741,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>22-110</t>
+          <t>22-111</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -22157,7 +22153,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27-341</t>
+          <t>27-342</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -22238,7 +22234,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>20-253</t>
+          <t>20-254</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -22319,7 +22315,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>23-049</t>
+          <t>23-050</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -22400,7 +22396,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>28-342</t>
+          <t>28-343</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -22481,7 +22477,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>26-310</t>
+          <t>26-311</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -22562,7 +22558,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>28-242</t>
+          <t>28-243</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -22643,7 +22639,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>26-059</t>
+          <t>26-060</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -22724,7 +22720,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>19-008</t>
+          <t>19-009</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -22805,7 +22801,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>24-265</t>
+          <t>24-266</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -22886,7 +22882,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>28-038</t>
+          <t>28-039</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -22967,7 +22963,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>28-279</t>
+          <t>28-280</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -23048,7 +23044,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>23-242</t>
+          <t>23-243</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -23129,7 +23125,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>27-160</t>
+          <t>27-161</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -23210,7 +23206,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>20-359</t>
+          <t>20-360</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -23291,7 +23287,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>31-052</t>
+          <t>31-053</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -23372,7 +23368,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>30-296</t>
+          <t>30-297</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -23453,7 +23449,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>23-033</t>
+          <t>23-034</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -23534,7 +23530,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>22-293</t>
+          <t>22-294</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -23615,7 +23611,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>25-027</t>
+          <t>25-028</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -23696,7 +23692,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>35-107</t>
+          <t>35-108</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -23777,7 +23773,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>36-314</t>
+          <t>36-315</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -23858,7 +23854,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>25-336</t>
+          <t>25-337</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -23939,7 +23935,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>31-024</t>
+          <t>31-025</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -24020,7 +24016,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>30-033</t>
+          <t>30-034</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -24101,7 +24097,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>24-029</t>
+          <t>24-030</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -24182,7 +24178,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>23-099</t>
+          <t>23-100</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -24263,7 +24259,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>31-183</t>
+          <t>31-184</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -24344,7 +24340,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>23-301</t>
+          <t>23-302</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -24425,7 +24421,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>28-252</t>
+          <t>28-253</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -24506,7 +24502,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>28-174</t>
+          <t>28-175</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -24587,7 +24583,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>22-051</t>
+          <t>22-052</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -24668,7 +24664,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>18-245</t>
+          <t>18-246</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -24749,7 +24745,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>21-357</t>
+          <t>21-358</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -24830,7 +24826,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>22-110</t>
+          <t>22-111</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -25264,7 +25260,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27-341</t>
+          <t>27-342</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -25345,7 +25341,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>20-253</t>
+          <t>20-254</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -25426,7 +25422,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>23-049</t>
+          <t>23-050</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -25507,7 +25503,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>28-342</t>
+          <t>28-343</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -25588,7 +25584,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>26-310</t>
+          <t>26-311</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -25669,7 +25665,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>28-242</t>
+          <t>28-243</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -25750,7 +25746,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>26-059</t>
+          <t>26-060</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -25831,7 +25827,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>19-008</t>
+          <t>19-009</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -25912,7 +25908,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>24-265</t>
+          <t>24-266</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -25993,7 +25989,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>28-038</t>
+          <t>28-039</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -26074,7 +26070,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>28-279</t>
+          <t>28-280</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -26155,7 +26151,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>23-242</t>
+          <t>23-243</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -26236,7 +26232,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>27-160</t>
+          <t>27-161</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -26317,7 +26313,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>20-359</t>
+          <t>20-360</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -26398,7 +26394,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>31-052</t>
+          <t>31-053</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -26479,7 +26475,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>30-296</t>
+          <t>30-297</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -26560,7 +26556,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>23-033</t>
+          <t>23-034</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -26641,7 +26637,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>22-293</t>
+          <t>22-294</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -26722,7 +26718,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>25-027</t>
+          <t>25-028</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -26803,7 +26799,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>35-107</t>
+          <t>35-108</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -26882,7 +26878,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>36-314</t>
+          <t>36-315</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -26963,7 +26959,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>25-336</t>
+          <t>25-337</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -27044,7 +27040,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>31-024</t>
+          <t>31-025</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -27125,7 +27121,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>30-033</t>
+          <t>30-034</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -27204,7 +27200,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>24-029</t>
+          <t>24-030</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -27285,7 +27281,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>23-099</t>
+          <t>23-100</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -27366,7 +27362,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>31-183</t>
+          <t>31-184</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -27447,7 +27443,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>23-301</t>
+          <t>23-302</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -27528,7 +27524,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>28-252</t>
+          <t>28-253</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -27609,7 +27605,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>28-174</t>
+          <t>28-175</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -27690,7 +27686,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>22-051</t>
+          <t>22-052</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -27771,7 +27767,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>18-245</t>
+          <t>18-246</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -27852,7 +27848,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>21-357</t>
+          <t>21-358</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -27931,7 +27927,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>22-110</t>
+          <t>22-111</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -28386,7 +28382,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27-341</t>
+          <t>27-342</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -28485,7 +28481,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>20-253</t>
+          <t>20-254</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -28584,7 +28580,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>23-049</t>
+          <t>23-050</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -28683,7 +28679,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>28-342</t>
+          <t>28-343</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -28782,7 +28778,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>26-310</t>
+          <t>26-311</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -28877,7 +28873,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>28-242</t>
+          <t>28-243</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -28976,7 +28972,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>26-059</t>
+          <t>26-060</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -29075,7 +29071,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>19-008</t>
+          <t>19-009</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -29174,7 +29170,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>24-265</t>
+          <t>24-266</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -29273,7 +29269,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>28-038</t>
+          <t>28-039</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -29372,7 +29368,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>28-279</t>
+          <t>28-280</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -29471,7 +29467,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>23-242</t>
+          <t>23-243</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -29570,7 +29566,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>27-160</t>
+          <t>27-161</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -29669,7 +29665,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>20-359</t>
+          <t>20-360</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -29768,7 +29764,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>31-052</t>
+          <t>31-053</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -29867,7 +29863,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>30-296</t>
+          <t>30-297</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -29966,7 +29962,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>23-033</t>
+          <t>23-034</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -30065,7 +30061,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>22-293</t>
+          <t>22-294</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -30164,7 +30160,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>25-027</t>
+          <t>25-028</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -30263,7 +30259,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>35-107</t>
+          <t>35-108</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -30358,7 +30354,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>36-314</t>
+          <t>36-315</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -30457,7 +30453,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>25-336</t>
+          <t>25-337</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -30556,7 +30552,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>31-024</t>
+          <t>31-025</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -30655,7 +30651,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>30-033</t>
+          <t>30-034</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -30750,7 +30746,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>24-029</t>
+          <t>24-030</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -30849,7 +30845,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>23-099</t>
+          <t>23-100</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -30948,7 +30944,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>31-183</t>
+          <t>31-184</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -31047,7 +31043,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>23-301</t>
+          <t>23-302</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -31146,7 +31142,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>28-252</t>
+          <t>28-253</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -31245,7 +31241,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>28-174</t>
+          <t>28-175</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -31344,7 +31340,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>22-051</t>
+          <t>22-052</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -31443,7 +31439,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>18-245</t>
+          <t>18-246</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -31542,7 +31538,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>21-357</t>
+          <t>21-358</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -31637,7 +31633,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>22-110</t>
+          <t>22-111</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -31938,14 +31934,10 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 4_level_0</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>Playing Time</t>
         </is>
       </c>
+      <c r="G1" s="1" t="n"/>
       <c r="H1" s="1" t="n"/>
       <c r="I1" s="1" t="n"/>
       <c r="J1" s="1" t="inlineStr">
@@ -32189,7 +32181,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27-341</t>
+          <t>27-342</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -32306,7 +32298,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>20-253</t>
+          <t>20-254</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -32423,7 +32415,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>23-049</t>
+          <t>23-050</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -32540,7 +32532,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>28-342</t>
+          <t>28-343</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -32657,7 +32649,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>26-310</t>
+          <t>26-311</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -32774,7 +32766,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>28-242</t>
+          <t>28-243</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -32891,7 +32883,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>26-059</t>
+          <t>26-060</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -33008,7 +33000,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>19-008</t>
+          <t>19-009</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -33125,7 +33117,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>24-265</t>
+          <t>24-266</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -33242,7 +33234,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>28-038</t>
+          <t>28-039</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -33359,7 +33351,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>28-279</t>
+          <t>28-280</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -33476,7 +33468,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>23-242</t>
+          <t>23-243</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -33593,7 +33585,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>27-160</t>
+          <t>27-161</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -33710,7 +33702,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>20-359</t>
+          <t>20-360</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -33827,7 +33819,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>31-052</t>
+          <t>31-053</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -33944,7 +33936,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>30-296</t>
+          <t>30-297</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -34061,7 +34053,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>23-033</t>
+          <t>23-034</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -34178,7 +34170,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>22-293</t>
+          <t>22-294</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -34295,7 +34287,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>25-027</t>
+          <t>25-028</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -34412,7 +34404,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>35-107</t>
+          <t>35-108</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -34529,7 +34521,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>36-314</t>
+          <t>36-315</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -34646,7 +34638,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>25-336</t>
+          <t>25-337</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -34763,7 +34755,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>31-024</t>
+          <t>31-025</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -34880,7 +34872,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>30-033</t>
+          <t>30-034</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -34997,7 +34989,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>24-029</t>
+          <t>24-030</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -35114,7 +35106,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>23-099</t>
+          <t>23-100</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -35231,7 +35223,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>31-183</t>
+          <t>31-184</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -35348,7 +35340,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>23-301</t>
+          <t>23-302</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -35465,7 +35457,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>28-252</t>
+          <t>28-253</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -35582,7 +35574,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>28-174</t>
+          <t>28-175</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -35699,7 +35691,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>22-051</t>
+          <t>22-052</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -35816,7 +35808,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>18-245</t>
+          <t>18-246</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -35933,7 +35925,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>21-357</t>
+          <t>21-358</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -36050,7 +36042,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>22-110</t>
+          <t>22-111</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -36418,9 +36410,9 @@
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="Y1:AH1"/>
+    <mergeCell ref="F1:I1"/>
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="G1:I1"/>
     <mergeCell ref="V1:X1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Teams/Southampton_stats.xlsx
+++ b/Teams/Southampton_stats.xlsx
@@ -7,16 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Matches" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standard Stats" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shooting Stats" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Passing Stats" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pass Types" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Goal &amp; Shot Creation" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defensive Actions" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Possession" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Playing Time" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Miscellaneous Stats" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standard Stats" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shooting Stats" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Passing Stats" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pass Types" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Goal &amp; Shot Creation" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defensive Actions" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Possession" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Playing Time" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Miscellaneous Stats" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet_9" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4022,7 +4022,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27-345</t>
+          <t>27-348</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -4093,7 +4093,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>20-257</t>
+          <t>20-260</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>23-053</t>
+          <t>23-056</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -4235,7 +4235,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>28-346</t>
+          <t>28-349</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -4306,7 +4306,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>26-314</t>
+          <t>26-317</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -4377,7 +4377,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>28-246</t>
+          <t>28-249</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -4448,7 +4448,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>26-063</t>
+          <t>26-066</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -4519,7 +4519,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>19-012</t>
+          <t>19-015</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -4590,7 +4590,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>24-269</t>
+          <t>24-272</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -4661,7 +4661,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>28-042</t>
+          <t>28-045</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -4732,7 +4732,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>28-283</t>
+          <t>28-286</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -4803,7 +4803,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>23-246</t>
+          <t>23-249</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -4874,7 +4874,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>27-164</t>
+          <t>27-167</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -4945,7 +4945,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>20-363</t>
+          <t>21-001</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -5016,7 +5016,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>31-056</t>
+          <t>31-059</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -5087,7 +5087,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>30-300</t>
+          <t>30-303</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -5158,7 +5158,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>23-037</t>
+          <t>23-040</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -5229,7 +5229,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>22-297</t>
+          <t>22-300</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -5300,7 +5300,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>25-031</t>
+          <t>25-034</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -5371,7 +5371,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>35-111</t>
+          <t>35-114</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -5442,7 +5442,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>36-318</t>
+          <t>36-321</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -5513,7 +5513,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>25-340</t>
+          <t>25-343</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -5584,7 +5584,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>31-028</t>
+          <t>31-031</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -5655,7 +5655,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>30-037</t>
+          <t>30-040</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -5726,7 +5726,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>24-033</t>
+          <t>24-036</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -5797,7 +5797,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>23-103</t>
+          <t>23-106</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -5868,7 +5868,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>31-187</t>
+          <t>31-190</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -5939,7 +5939,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>23-305</t>
+          <t>23-308</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -6010,7 +6010,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>28-256</t>
+          <t>28-259</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -6081,7 +6081,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>28-178</t>
+          <t>28-181</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -6152,7 +6152,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>22-055</t>
+          <t>22-058</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -6221,7 +6221,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>18-249</t>
+          <t>18-252</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -6292,7 +6292,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>21-361</t>
+          <t>21-364</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>22-114</t>
+          <t>22-117</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27-345</t>
+          <t>27-348</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6915,7 +6915,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>20-257</t>
+          <t>20-260</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -7022,7 +7022,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>23-053</t>
+          <t>23-056</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>28-346</t>
+          <t>28-349</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -7236,7 +7236,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>26-314</t>
+          <t>26-317</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -7343,7 +7343,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>28-246</t>
+          <t>28-249</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -7450,7 +7450,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>26-063</t>
+          <t>26-066</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -7557,7 +7557,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>19-012</t>
+          <t>19-015</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -7664,7 +7664,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>24-269</t>
+          <t>24-272</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -7771,7 +7771,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>28-042</t>
+          <t>28-045</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -7878,7 +7878,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>28-283</t>
+          <t>28-286</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -7985,7 +7985,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>23-246</t>
+          <t>23-249</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -8092,7 +8092,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>27-164</t>
+          <t>27-167</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -8199,7 +8199,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>20-363</t>
+          <t>21-001</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -8306,7 +8306,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>31-056</t>
+          <t>31-059</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -8413,7 +8413,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>30-300</t>
+          <t>30-303</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -8520,7 +8520,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>23-037</t>
+          <t>23-040</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -8627,7 +8627,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>22-297</t>
+          <t>22-300</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -8734,7 +8734,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>25-031</t>
+          <t>25-034</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -8841,7 +8841,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>35-111</t>
+          <t>35-114</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -8948,7 +8948,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>36-318</t>
+          <t>36-321</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -9055,7 +9055,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>25-340</t>
+          <t>25-343</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -9162,7 +9162,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>31-028</t>
+          <t>31-031</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -9269,7 +9269,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>30-037</t>
+          <t>30-040</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -9376,7 +9376,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>24-033</t>
+          <t>24-036</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -9483,7 +9483,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>23-103</t>
+          <t>23-106</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -9590,7 +9590,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>31-187</t>
+          <t>31-190</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -9697,7 +9697,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>23-305</t>
+          <t>23-308</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -9804,7 +9804,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>28-256</t>
+          <t>28-259</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -9911,7 +9911,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>28-178</t>
+          <t>28-181</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -10018,7 +10018,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>22-055</t>
+          <t>22-058</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -10125,7 +10125,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>18-249</t>
+          <t>18-252</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -10232,7 +10232,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>21-361</t>
+          <t>21-364</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -10339,7 +10339,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>22-114</t>
+          <t>22-117</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -10868,7 +10868,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27-345</t>
+          <t>27-348</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -10942,7 +10942,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>20-257</t>
+          <t>20-260</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -11016,7 +11016,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>23-053</t>
+          <t>23-056</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -11090,7 +11090,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>28-346</t>
+          <t>28-349</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -11164,7 +11164,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>26-314</t>
+          <t>26-317</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -11228,7 +11228,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>28-246</t>
+          <t>28-249</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -11302,7 +11302,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>26-063</t>
+          <t>26-066</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -11376,7 +11376,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>19-012</t>
+          <t>19-015</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -11450,7 +11450,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>24-269</t>
+          <t>24-272</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -11524,7 +11524,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>28-042</t>
+          <t>28-045</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -11598,7 +11598,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>28-283</t>
+          <t>28-286</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -11670,7 +11670,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>23-246</t>
+          <t>23-249</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -11744,7 +11744,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>27-164</t>
+          <t>27-167</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -11818,7 +11818,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>20-363</t>
+          <t>21-001</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -11890,7 +11890,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>31-056</t>
+          <t>31-059</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -11962,7 +11962,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>30-300</t>
+          <t>30-303</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -12036,7 +12036,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>23-037</t>
+          <t>23-040</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -12110,7 +12110,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>22-297</t>
+          <t>22-300</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -12182,7 +12182,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>25-031</t>
+          <t>25-034</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -12256,7 +12256,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>35-111</t>
+          <t>35-114</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -12320,7 +12320,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>36-318</t>
+          <t>36-321</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -12392,7 +12392,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>25-340</t>
+          <t>25-343</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -12466,7 +12466,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>31-028</t>
+          <t>31-031</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -12540,7 +12540,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>30-037</t>
+          <t>30-040</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -12604,7 +12604,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>24-033</t>
+          <t>24-036</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -12676,7 +12676,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>23-103</t>
+          <t>23-106</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -12748,7 +12748,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>31-187</t>
+          <t>31-190</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -12812,7 +12812,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>23-305</t>
+          <t>23-308</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -12884,7 +12884,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>28-256</t>
+          <t>28-259</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -12956,7 +12956,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>28-178</t>
+          <t>28-181</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -13028,7 +13028,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>22-055</t>
+          <t>22-058</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -13092,7 +13092,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>18-249</t>
+          <t>18-252</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -13164,7 +13164,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>21-361</t>
+          <t>21-364</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -13228,7 +13228,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>22-114</t>
+          <t>22-117</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -13654,7 +13654,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27-345</t>
+          <t>27-348</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -13746,7 +13746,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>20-257</t>
+          <t>20-260</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -13838,7 +13838,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>23-053</t>
+          <t>23-056</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -13930,7 +13930,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>28-346</t>
+          <t>28-349</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -14022,7 +14022,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>26-314</t>
+          <t>26-317</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -14114,7 +14114,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>28-246</t>
+          <t>28-249</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -14206,7 +14206,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>26-063</t>
+          <t>26-066</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -14298,7 +14298,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>19-012</t>
+          <t>19-015</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -14390,7 +14390,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>24-269</t>
+          <t>24-272</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -14482,7 +14482,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>28-042</t>
+          <t>28-045</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -14574,7 +14574,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>28-283</t>
+          <t>28-286</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -14666,7 +14666,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>23-246</t>
+          <t>23-249</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -14758,7 +14758,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>27-164</t>
+          <t>27-167</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -14850,7 +14850,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>20-363</t>
+          <t>21-001</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -14942,7 +14942,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>31-056</t>
+          <t>31-059</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -15034,7 +15034,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>30-300</t>
+          <t>30-303</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -15126,7 +15126,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>23-037</t>
+          <t>23-040</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -15218,7 +15218,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>22-297</t>
+          <t>22-300</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -15310,7 +15310,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>25-031</t>
+          <t>25-034</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -15402,7 +15402,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>35-111</t>
+          <t>35-114</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -15494,7 +15494,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>36-318</t>
+          <t>36-321</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -15586,7 +15586,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>25-340</t>
+          <t>25-343</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -15678,7 +15678,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>31-028</t>
+          <t>31-031</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -15770,7 +15770,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>30-037</t>
+          <t>30-040</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -15862,7 +15862,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>24-033</t>
+          <t>24-036</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -15954,7 +15954,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>23-103</t>
+          <t>23-106</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -16046,7 +16046,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>31-187</t>
+          <t>31-190</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -16138,7 +16138,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>23-305</t>
+          <t>23-308</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -16228,7 +16228,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>28-256</t>
+          <t>28-259</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -16320,7 +16320,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>28-178</t>
+          <t>28-181</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -16412,7 +16412,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>22-055</t>
+          <t>22-058</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -16504,7 +16504,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>18-249</t>
+          <t>18-252</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -16594,7 +16594,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>21-361</t>
+          <t>21-364</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -16682,7 +16682,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>22-114</t>
+          <t>22-117</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -17109,7 +17109,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27-345</t>
+          <t>27-348</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -17177,7 +17177,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>20-257</t>
+          <t>20-260</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -17245,7 +17245,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>23-053</t>
+          <t>23-056</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -17313,7 +17313,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>28-346</t>
+          <t>28-349</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -17381,7 +17381,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>26-314</t>
+          <t>26-317</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -17449,7 +17449,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>28-246</t>
+          <t>28-249</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -17517,7 +17517,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>26-063</t>
+          <t>26-066</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -17585,7 +17585,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>19-012</t>
+          <t>19-015</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -17653,7 +17653,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>24-269</t>
+          <t>24-272</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -17721,7 +17721,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>28-042</t>
+          <t>28-045</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -17789,7 +17789,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>28-283</t>
+          <t>28-286</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -17857,7 +17857,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>23-246</t>
+          <t>23-249</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -17925,7 +17925,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>27-164</t>
+          <t>27-167</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -17993,7 +17993,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>20-363</t>
+          <t>21-001</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -18061,7 +18061,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>31-056</t>
+          <t>31-059</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -18129,7 +18129,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>30-300</t>
+          <t>30-303</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -18197,7 +18197,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>23-037</t>
+          <t>23-040</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -18265,7 +18265,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>22-297</t>
+          <t>22-300</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -18333,7 +18333,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>25-031</t>
+          <t>25-034</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -18401,7 +18401,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>35-111</t>
+          <t>35-114</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -18469,7 +18469,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>36-318</t>
+          <t>36-321</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -18537,7 +18537,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>25-340</t>
+          <t>25-343</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -18605,7 +18605,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>31-028</t>
+          <t>31-031</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -18673,7 +18673,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>30-037</t>
+          <t>30-040</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -18741,7 +18741,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>24-033</t>
+          <t>24-036</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -18809,7 +18809,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>23-103</t>
+          <t>23-106</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -18877,7 +18877,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>31-187</t>
+          <t>31-190</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -18945,7 +18945,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>23-305</t>
+          <t>23-308</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -19013,7 +19013,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>28-256</t>
+          <t>28-259</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -19081,7 +19081,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>28-178</t>
+          <t>28-181</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -19149,7 +19149,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>22-055</t>
+          <t>22-058</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -19217,7 +19217,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>18-249</t>
+          <t>18-252</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -19285,7 +19285,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>21-361</t>
+          <t>21-364</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -19353,7 +19353,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>22-114</t>
+          <t>22-117</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -19716,7 +19716,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27-345</t>
+          <t>27-348</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -19787,7 +19787,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>20-257</t>
+          <t>20-260</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -19858,7 +19858,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>23-053</t>
+          <t>23-056</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -19929,7 +19929,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>28-346</t>
+          <t>28-349</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -20000,7 +20000,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>26-314</t>
+          <t>26-317</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -20071,7 +20071,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>28-246</t>
+          <t>28-249</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -20142,7 +20142,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>26-063</t>
+          <t>26-066</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -20213,7 +20213,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>19-012</t>
+          <t>19-015</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -20284,7 +20284,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>24-269</t>
+          <t>24-272</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -20355,7 +20355,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>28-042</t>
+          <t>28-045</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -20426,7 +20426,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>28-283</t>
+          <t>28-286</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -20497,7 +20497,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>23-246</t>
+          <t>23-249</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -20568,7 +20568,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>27-164</t>
+          <t>27-167</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -20639,7 +20639,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>20-363</t>
+          <t>21-001</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -20710,7 +20710,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>31-056</t>
+          <t>31-059</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -20781,7 +20781,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>30-300</t>
+          <t>30-303</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -20852,7 +20852,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>23-037</t>
+          <t>23-040</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -20923,7 +20923,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>22-297</t>
+          <t>22-300</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -20994,7 +20994,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>25-031</t>
+          <t>25-034</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -21065,7 +21065,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>35-111</t>
+          <t>35-114</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -21136,7 +21136,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>36-318</t>
+          <t>36-321</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -21207,7 +21207,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>25-340</t>
+          <t>25-343</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -21278,7 +21278,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>31-028</t>
+          <t>31-031</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -21349,7 +21349,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>30-037</t>
+          <t>30-040</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -21420,7 +21420,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>24-033</t>
+          <t>24-036</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -21491,7 +21491,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>23-103</t>
+          <t>23-106</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -21562,7 +21562,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>31-187</t>
+          <t>31-190</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -21633,7 +21633,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>23-305</t>
+          <t>23-308</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -21704,7 +21704,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>28-256</t>
+          <t>28-259</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -21775,7 +21775,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>28-178</t>
+          <t>28-181</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -21846,7 +21846,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>22-055</t>
+          <t>22-058</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -21917,7 +21917,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>18-249</t>
+          <t>18-252</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -21988,7 +21988,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>21-361</t>
+          <t>21-364</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -22059,7 +22059,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>22-114</t>
+          <t>22-117</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -22428,7 +22428,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27-345</t>
+          <t>27-348</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -22499,7 +22499,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>20-257</t>
+          <t>20-260</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -22570,7 +22570,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>23-053</t>
+          <t>23-056</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -22641,7 +22641,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>28-346</t>
+          <t>28-349</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -22712,7 +22712,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>26-314</t>
+          <t>26-317</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -22783,7 +22783,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>28-246</t>
+          <t>28-249</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -22854,7 +22854,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>26-063</t>
+          <t>26-066</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -22925,7 +22925,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>19-012</t>
+          <t>19-015</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -22996,7 +22996,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>24-269</t>
+          <t>24-272</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -23067,7 +23067,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>28-042</t>
+          <t>28-045</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -23138,7 +23138,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>28-283</t>
+          <t>28-286</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -23209,7 +23209,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>23-246</t>
+          <t>23-249</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -23280,7 +23280,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>27-164</t>
+          <t>27-167</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -23351,7 +23351,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>20-363</t>
+          <t>21-001</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -23422,7 +23422,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>31-056</t>
+          <t>31-059</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -23493,7 +23493,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>30-300</t>
+          <t>30-303</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -23564,7 +23564,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>23-037</t>
+          <t>23-040</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -23635,7 +23635,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>22-297</t>
+          <t>22-300</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -23706,7 +23706,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>25-031</t>
+          <t>25-034</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -23777,7 +23777,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>35-111</t>
+          <t>35-114</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -23846,7 +23846,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>36-318</t>
+          <t>36-321</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -23917,7 +23917,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>25-340</t>
+          <t>25-343</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -23988,7 +23988,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>31-028</t>
+          <t>31-031</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -24059,7 +24059,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>30-037</t>
+          <t>30-040</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -24128,7 +24128,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>24-033</t>
+          <t>24-036</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -24199,7 +24199,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>23-103</t>
+          <t>23-106</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -24270,7 +24270,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>31-187</t>
+          <t>31-190</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -24341,7 +24341,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>23-305</t>
+          <t>23-308</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -24412,7 +24412,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>28-256</t>
+          <t>28-259</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -24483,7 +24483,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>28-178</t>
+          <t>28-181</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -24554,7 +24554,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>22-055</t>
+          <t>22-058</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -24625,7 +24625,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>18-249</t>
+          <t>18-252</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -24696,7 +24696,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>21-361</t>
+          <t>21-364</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -24765,7 +24765,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>22-114</t>
+          <t>22-117</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -25171,7 +25171,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27-345</t>
+          <t>27-348</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -25260,7 +25260,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>20-257</t>
+          <t>20-260</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -25349,7 +25349,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>23-053</t>
+          <t>23-056</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -25438,7 +25438,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>28-346</t>
+          <t>28-349</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -25527,7 +25527,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>26-314</t>
+          <t>26-317</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -25612,7 +25612,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>28-246</t>
+          <t>28-249</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -25701,7 +25701,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>26-063</t>
+          <t>26-066</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -25790,7 +25790,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>19-012</t>
+          <t>19-015</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -25879,7 +25879,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>24-269</t>
+          <t>24-272</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -25968,7 +25968,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>28-042</t>
+          <t>28-045</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -26057,7 +26057,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>28-283</t>
+          <t>28-286</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -26146,7 +26146,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>23-246</t>
+          <t>23-249</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -26235,7 +26235,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>27-164</t>
+          <t>27-167</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -26324,7 +26324,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>20-363</t>
+          <t>21-001</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -26413,7 +26413,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>31-056</t>
+          <t>31-059</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -26502,7 +26502,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>30-300</t>
+          <t>30-303</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -26591,7 +26591,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>23-037</t>
+          <t>23-040</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -26680,7 +26680,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>22-297</t>
+          <t>22-300</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -26769,7 +26769,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>25-031</t>
+          <t>25-034</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -26858,7 +26858,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>35-111</t>
+          <t>35-114</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -26943,7 +26943,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>36-318</t>
+          <t>36-321</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -27032,7 +27032,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>25-340</t>
+          <t>25-343</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -27121,7 +27121,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>31-028</t>
+          <t>31-031</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -27210,7 +27210,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>30-037</t>
+          <t>30-040</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -27295,7 +27295,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>24-033</t>
+          <t>24-036</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -27384,7 +27384,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>23-103</t>
+          <t>23-106</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -27473,7 +27473,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>31-187</t>
+          <t>31-190</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -27562,7 +27562,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>23-305</t>
+          <t>23-308</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -27651,7 +27651,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>28-256</t>
+          <t>28-259</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -27740,7 +27740,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>28-178</t>
+          <t>28-181</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -27829,7 +27829,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>22-055</t>
+          <t>22-058</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -27918,7 +27918,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>18-249</t>
+          <t>18-252</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -28007,7 +28007,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>21-361</t>
+          <t>21-364</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -28092,7 +28092,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>22-114</t>
+          <t>22-117</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -28595,7 +28595,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27-345</t>
+          <t>27-348</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -28702,7 +28702,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>20-257</t>
+          <t>20-260</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -28809,7 +28809,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>23-053</t>
+          <t>23-056</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -28916,7 +28916,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>28-346</t>
+          <t>28-349</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -29023,7 +29023,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>26-314</t>
+          <t>26-317</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -29130,7 +29130,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>28-246</t>
+          <t>28-249</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -29237,7 +29237,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>26-063</t>
+          <t>26-066</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -29344,7 +29344,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>19-012</t>
+          <t>19-015</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -29451,7 +29451,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>24-269</t>
+          <t>24-272</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -29558,7 +29558,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>28-042</t>
+          <t>28-045</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -29665,7 +29665,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>28-283</t>
+          <t>28-286</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -29772,7 +29772,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>23-246</t>
+          <t>23-249</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -29879,7 +29879,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>27-164</t>
+          <t>27-167</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -29986,7 +29986,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>20-363</t>
+          <t>21-001</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -30093,7 +30093,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>31-056</t>
+          <t>31-059</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -30200,7 +30200,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>30-300</t>
+          <t>30-303</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -30307,7 +30307,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>23-037</t>
+          <t>23-040</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -30414,7 +30414,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>22-297</t>
+          <t>22-300</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -30521,7 +30521,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>25-031</t>
+          <t>25-034</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -30628,7 +30628,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>35-111</t>
+          <t>35-114</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -30735,7 +30735,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>36-318</t>
+          <t>36-321</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -30842,7 +30842,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>25-340</t>
+          <t>25-343</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -30949,7 +30949,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>31-028</t>
+          <t>31-031</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -31056,7 +31056,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>30-037</t>
+          <t>30-040</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -31163,7 +31163,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>24-033</t>
+          <t>24-036</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -31270,7 +31270,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>23-103</t>
+          <t>23-106</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -31377,7 +31377,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>31-187</t>
+          <t>31-190</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -31484,7 +31484,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>23-305</t>
+          <t>23-308</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -31591,7 +31591,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>28-256</t>
+          <t>28-259</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -31698,7 +31698,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>28-178</t>
+          <t>28-181</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -31805,7 +31805,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>22-055</t>
+          <t>22-058</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -31912,7 +31912,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>18-249</t>
+          <t>18-252</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -32019,7 +32019,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>21-361</t>
+          <t>21-364</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -32126,7 +32126,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>22-114</t>
+          <t>22-117</t>
         </is>
       </c>
       <c r="E37" t="n">
